--- a/data/trans_bre/P19C07-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9731296587939077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7372116627096356</v>
+        <v>0.7372116627096357</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1765357374464809</v>
@@ -649,7 +649,7 @@
         <v>0.3220993625187634</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5126590974318065</v>
+        <v>0.5126590974318066</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.917300593436178</v>
+        <v>-2.712510090385561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.495566324868998</v>
+        <v>-2.473678190179528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9167071083258294</v>
+        <v>-0.938892947173642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.170568457960514</v>
+        <v>-1.214037265793993</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6107433728175944</v>
+        <v>-0.6057627432819183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6315424396573515</v>
+        <v>-0.6270420265625984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2392823112596544</v>
+        <v>-0.2430809289038507</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5087553167980561</v>
+        <v>-0.5369870250751868</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.387169861263728</v>
+        <v>1.426782032428749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.668723217341834</v>
+        <v>0.757142086069486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.827531675650908</v>
+        <v>2.618304399668489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.245571449571784</v>
+        <v>2.122049964096596</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7687915365216664</v>
+        <v>0.8071328441731129</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3539702460488405</v>
+        <v>0.3866181752811129</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.344089105612084</v>
+        <v>1.216322009172739</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.626510061252173</v>
+        <v>3.607837977313429</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.765329053471929</v>
+        <v>-1.907676008295376</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.545850660596919</v>
+        <v>-1.25306514738912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8602389590753674</v>
+        <v>-0.8686428782167228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6049589189231179</v>
+        <v>-0.8233792008429621</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4009880658742793</v>
+        <v>-0.4315990886776174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3716736807517951</v>
+        <v>-0.3141104561118984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.313983000367895</v>
+        <v>-0.3297331101953593</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2159012287484737</v>
+        <v>-0.2715397846722031</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.860882023667538</v>
+        <v>1.774905780139935</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.345662408751301</v>
+        <v>2.475726474179628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.13914128474952</v>
+        <v>2.149214470792507</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.588640091952398</v>
+        <v>2.424776568448657</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7656302805053739</v>
+        <v>0.7131803823428478</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.003425748358523</v>
+        <v>1.047904690619565</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.65447345528806</v>
+        <v>1.453889772460088</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.687021920670998</v>
+        <v>1.570578716941775</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.006155609948299556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9229126573520957</v>
+        <v>0.922912657352095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1927985275417058</v>
@@ -849,7 +849,7 @@
         <v>0.001696886695908632</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2235399800403762</v>
+        <v>0.223539980040376</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.166255464113846</v>
+        <v>-1.131634771232216</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7979457484606384</v>
+        <v>-0.9315006448743829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.868982634314512</v>
+        <v>-1.936505723633032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.096608100176013</v>
+        <v>-1.038965393343624</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.281809762029006</v>
+        <v>-0.2735520866449829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2191288076515267</v>
+        <v>-0.23112084793389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4278073346752559</v>
+        <v>-0.4405371535512173</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2005142362141842</v>
+        <v>-0.2014166985814627</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.515378325093967</v>
+        <v>2.43943306768261</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.149919907803415</v>
+        <v>2.919944965299904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.239779575259388</v>
+        <v>2.225990290826529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.700493261604412</v>
+        <v>2.959558673726422</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.033643281934909</v>
+        <v>0.9644976918655851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.240787236270877</v>
+        <v>1.173946334109854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8656895738232431</v>
+        <v>0.8858343291161943</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.86304316312607</v>
+        <v>0.9675833414555317</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.762265655560132</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7261759448319471</v>
+        <v>0.7261759448319465</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2164795761921531</v>
@@ -949,7 +949,7 @@
         <v>0.7009432659439101</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1444924515680567</v>
+        <v>0.1444924515680565</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.831085952491656</v>
+        <v>-3.740773616441141</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.258431379439491</v>
+        <v>-2.300675609927913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8985443365814808</v>
+        <v>-0.746467557499302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.74406575131779</v>
+        <v>-1.777162554379085</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6660403839940273</v>
+        <v>-0.6617206851969054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4226219580203374</v>
+        <v>-0.4158065641898673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2996272971235873</v>
+        <v>-0.2936383949835418</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3093529850261733</v>
+        <v>-0.2924416961487976</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.900503109131303</v>
+        <v>2.445824282150574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.956297456480991</v>
+        <v>3.536469423601432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.315707159400906</v>
+        <v>4.393510542365104</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.134017470954402</v>
+        <v>3.130455208031102</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9033394860483265</v>
+        <v>0.881869835062646</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.368499909159816</v>
+        <v>1.163906878554354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.605339657020067</v>
+        <v>2.804171680550398</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.829906246198181</v>
+        <v>0.7871492490561064</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.7445016472253627</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7052294211752415</v>
+        <v>0.7052294211752421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.03191478452229796</v>
@@ -1049,7 +1049,7 @@
         <v>0.2598645343945493</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2004305368302523</v>
+        <v>0.2004305368302525</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.148797219934624</v>
+        <v>-1.167571848744559</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7761287211812504</v>
+        <v>-0.7950452725715882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2747788621418659</v>
+        <v>-0.1972860108721409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.26455473049242</v>
+        <v>-0.3155452974837917</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2955549611958768</v>
+        <v>-0.2939804120292697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2015393812091979</v>
+        <v>-0.2002876906830156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08695870801843675</v>
+        <v>-0.07010238807322811</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06826605649587159</v>
+        <v>-0.08056210828206109</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9464887468042497</v>
+        <v>0.8453101919589814</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.244451705938286</v>
+        <v>1.251670930441954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.658160319518502</v>
+        <v>1.665447859178649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.765920062987853</v>
+        <v>1.684787641987884</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3209612619988335</v>
+        <v>0.294845626207995</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.444305339902786</v>
+        <v>0.4400392520586786</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6886388334514676</v>
+        <v>0.6848804753172132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6024862292366193</v>
+        <v>0.5588936781242129</v>
       </c>
     </row>
     <row r="19">
